--- a/DataBase/Consumos/consumos_SAAVEDRA_18_01_2026.xlsx
+++ b/DataBase/Consumos/consumos_SAAVEDRA_18_01_2026.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
-  <x:si>
-    <x:t>Desde: 01/01/2026 Hasta: 17/01/2026</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+  <x:si>
+    <x:t>Desde: 01/01/2026 Hasta: 18/01/2026</x:t>
   </x:si>
   <x:si>
     <x:t>Sucursales: SAAVEDRA</x:t>
@@ -76,6 +76,9 @@
     <x:t>CERVEZA QUILMES</x:t>
   </x:si>
   <x:si>
+    <x:t>NORTON COS TARDIA 3/4</x:t>
+  </x:si>
+  <x:si>
     <x:t>PORTILLO MALBEC</x:t>
   </x:si>
   <x:si>
@@ -380,6 +383,9 @@
   </x:si>
   <x:si>
     <x:t>SUG. VACIO C/FRITAS CH. PAN, VERD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUG. VACIO GRILLADO CON FRITAS RANCHERAS</x:t>
   </x:si>
   <x:si>
     <x:t>SUGERENC RIÑON PROV C/ PU</x:t>
@@ -710,8 +716,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E199" totalsRowShown="0">
-  <x:autoFilter ref="A4:E199"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E201" totalsRowShown="0">
+  <x:autoFilter ref="A4:E201"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="FAMILIA"/>
     <x:tableColumn id="2" name="CODIGO"/>
@@ -1011,7 +1017,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E199"/>
+  <x:dimension ref="A1:E201"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1066,10 +1072,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>1473500</x:v>
+        <x:v>1704500</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -1083,10 +1089,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>818400</x:v>
+        <x:v>886600</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -1100,10 +1106,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>70000</x:v>
+        <x:v>84000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -1151,10 +1157,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>96000</x:v>
+        <x:v>108000</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -1168,10 +1174,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>120000</x:v>
+        <x:v>136000</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -1185,10 +1191,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>40500</x:v>
+        <x:v>81000</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1202,10 +1208,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>132000</x:v>
+        <x:v>154000</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1219,10 +1225,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>385400</x:v>
+        <x:v>479400</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1236,10 +1242,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>42000</x:v>
+        <x:v>67200</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1247,16 +1253,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>27000</x:v>
+        <x:v>13000</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -1264,16 +1270,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>4200</x:v>
+        <x:v>27000</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1281,16 +1287,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>90000</x:v>
+        <x:v>12600</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -1298,16 +1304,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B19" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>60000</x:v>
+        <x:v>90000</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1315,16 +1321,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B20" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>40500</x:v>
+        <x:v>75000</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -1332,16 +1338,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B21" s="0" t="n">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>216000</x:v>
+        <x:v>40500</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1349,16 +1355,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>148800</x:v>
+        <x:v>216000</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1366,16 +1372,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>16200</x:v>
+        <x:v>158400</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1383,16 +1389,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>59400</x:v>
+        <x:v>27000</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1400,16 +1406,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>235200</x:v>
+        <x:v>59400</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1417,16 +1423,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>10008</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>78000</x:v>
+        <x:v>271600</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1434,16 +1440,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>10022</x:v>
+        <x:v>10008</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>63800</x:v>
+        <x:v>78000</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
@@ -1451,636 +1457,636 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>10029</x:v>
+        <x:v>10022</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>28000</x:v>
+        <x:v>81200</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>10029</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="n">
+      <x:c r="D29" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="n">
-        <x:v>56</x:v>
-      </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>173600</x:v>
+        <x:v>28000</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>290500</x:v>
+        <x:v>176700</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>23400</x:v>
+        <x:v>311500</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>9000</x:v>
+        <x:v>23400</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>9000</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>5600</x:v>
+        <x:v>2500</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>5600</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>32000</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>19000</x:v>
+        <x:v>32000</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>39000</x:v>
+        <x:v>19000</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>70000</x:v>
+        <x:v>39000</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>25000</x:v>
+        <x:v>84000</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>997800</x:v>
+        <x:v>25000</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>1120000</x:v>
+        <x:v>1055800</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>26000</x:v>
+        <x:v>1223000</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>1140100</x:v>
+        <x:v>26000</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>15000</x:v>
+        <x:v>1241600</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>1239000</x:v>
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>154500</x:v>
+        <x:v>1347000</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>57500</x:v>
+        <x:v>154500</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>151800</x:v>
+        <x:v>66700</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>117000</x:v>
+        <x:v>170200</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B51" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>785500</x:v>
+        <x:v>117000</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>650700</x:v>
+        <x:v>861500</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>380000</x:v>
+        <x:v>699400</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>153000</x:v>
+        <x:v>448000</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>508900</x:v>
+        <x:v>187000</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>48600</x:v>
+        <x:v>550900</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>39000</x:v>
+        <x:v>48600</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>54300</x:v>
+        <x:v>41000</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>96800</x:v>
+        <x:v>54300</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>375400</x:v>
+        <x:v>108600</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>100800</x:v>
+        <x:v>431600</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>270900</x:v>
+        <x:v>123200</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>38000</x:v>
+        <x:v>340900</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>22000</x:v>
+        <x:v>66500</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>71</x:v>
@@ -2089,474 +2095,474 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>18000</x:v>
+        <x:v>33000</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>3000</x:v>
+        <x:v>18000</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>531200</x:v>
+        <x:v>3000</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>226700</x:v>
+        <x:v>566000</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>406000</x:v>
+        <x:v>229600</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>21000</x:v>
+        <x:v>406000</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>232000</x:v>
+        <x:v>21000</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>28200</x:v>
+        <x:v>232000</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>32500</x:v>
+        <x:v>37600</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>3200</x:v>
+        <x:v>32500</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>4000</x:v>
+        <x:v>3200</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>26000</x:v>
+        <x:v>4000</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>75900</x:v>
+        <x:v>26000</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>406</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>75900</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
-        <x:v>407</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>24500</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>266500</x:v>
+        <x:v>24500</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="A81" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B81" s="0" t="n">
-        <x:v>409</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>186000</x:v>
+        <x:v>266500</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="A82" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
-        <x:v>410</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>210000</x:v>
+        <x:v>229500</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="A83" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
-        <x:v>411</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>149000</x:v>
+        <x:v>233600</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="A84" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
-        <x:v>419</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>9000</x:v>
+        <x:v>167500</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="A85" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
-        <x:v>465</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>51000</x:v>
+        <x:v>9000</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="A86" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
-        <x:v>510</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>185800</x:v>
+        <x:v>54000</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="A87" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>885300</x:v>
+        <x:v>206100</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="A88" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
-        <x:v>520</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>6400</x:v>
+        <x:v>943300</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="A89" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
-        <x:v>524</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>216000</x:v>
+        <x:v>6400</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="A90" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
-        <x:v>525</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E90" s="0" t="n">
-        <x:v>27000</x:v>
+        <x:v>264000</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="A91" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>543</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E91" s="0" t="n">
-        <x:v>283500</x:v>
+        <x:v>27000</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="A92" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
-        <x:v>674</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
-        <x:v>23600</x:v>
+        <x:v>297000</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="A93" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
-        <x:v>680</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>99</x:v>
@@ -2565,151 +2571,151 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
-        <x:v>9400</x:v>
+        <x:v>23600</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="A94" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
-        <x:v>681</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>27000</x:v>
+        <x:v>9400</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="A95" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
-        <x:v>701</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>1125000</x:v>
+        <x:v>27000</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="A96" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
-        <x:v>702</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
-        <x:v>420000</x:v>
+        <x:v>1125000</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="A97" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
-        <x:v>703</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>450000</x:v>
+        <x:v>420000</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="A98" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
-        <x:v>704</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
-        <x:v>1140000</x:v>
+        <x:v>450000</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="A99" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
-        <x:v>705</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>958500</x:v>
+        <x:v>1140000</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="A100" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
-        <x:v>820</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>12800</x:v>
+        <x:v>972000</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="A101" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
-        <x:v>821</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>4500</x:v>
+        <x:v>12800</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
       <x:c r="A102" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B102" s="0" t="n">
-        <x:v>963</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>108</x:v>
@@ -2718,63 +2724,63 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>4500</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
       <x:c r="A103" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B103" s="0" t="n">
-        <x:v>995</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E103" s="0" t="n">
-        <x:v>86200</x:v>
+        <x:v>2500</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:5">
       <x:c r="A104" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B104" s="0" t="n">
-        <x:v>10003</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E104" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>101300</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5">
       <x:c r="A105" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B105" s="0" t="n">
-        <x:v>10027</x:v>
+        <x:v>10003</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E105" s="0" t="n">
-        <x:v>92000</x:v>
+        <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5">
       <x:c r="A106" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B106" s="0" t="n">
         <x:v>10027</x:v>
@@ -2783,15 +2789,15 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
-        <x:v>70500</x:v>
+        <x:v>92000</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5">
       <x:c r="A107" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B107" s="0" t="n">
         <x:v>10027</x:v>
@@ -2803,12 +2809,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
-        <x:v>60000</x:v>
+        <x:v>70500</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:5">
       <x:c r="A108" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B108" s="0" t="n">
         <x:v>10027</x:v>
@@ -2817,15 +2823,15 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
-        <x:v>34000</x:v>
+        <x:v>60000</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
       <x:c r="A109" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B109" s="0" t="n">
         <x:v>10027</x:v>
@@ -2834,15 +2840,15 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34000</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5">
       <x:c r="A110" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B110" s="0" t="n">
         <x:v>10027</x:v>
@@ -2851,15 +2857,15 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E110" s="0" t="n">
-        <x:v>19000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5">
       <x:c r="A111" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B111" s="0" t="n">
         <x:v>10027</x:v>
@@ -2871,12 +2877,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E111" s="0" t="n">
-        <x:v>17500</x:v>
+        <x:v>19000</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:5">
       <x:c r="A112" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B112" s="0" t="n">
         <x:v>10027</x:v>
@@ -2888,12 +2894,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
-        <x:v>13000</x:v>
+        <x:v>17500</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:5">
       <x:c r="A113" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B113" s="0" t="n">
         <x:v>10027</x:v>
@@ -2905,12 +2911,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E113" s="0" t="n">
-        <x:v>18000</x:v>
+        <x:v>13000</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:5">
       <x:c r="A114" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B114" s="0" t="n">
         <x:v>10027</x:v>
@@ -2919,15 +2925,15 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
-        <x:v>46000</x:v>
+        <x:v>18000</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:5">
       <x:c r="A115" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B115" s="0" t="n">
         <x:v>10027</x:v>
@@ -2936,52 +2942,52 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
-        <x:v>69000</x:v>
+        <x:v>46000</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:5">
       <x:c r="A116" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B116" s="0" t="n">
-        <x:v>10030</x:v>
+        <x:v>10027</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
-        <x:v>13500</x:v>
+        <x:v>69000</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:5">
       <x:c r="A117" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B117" s="0" t="n">
-        <x:v>10031</x:v>
+        <x:v>10027</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
-        <x:v>45000</x:v>
+        <x:v>46000</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:5">
       <x:c r="A118" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B118" s="0" t="n">
-        <x:v>10040</x:v>
+        <x:v>10030</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>124</x:v>
@@ -2990,576 +2996,576 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
-        <x:v>16000</x:v>
+        <x:v>13500</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:5">
       <x:c r="A119" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B119" s="0" t="n">
-        <x:v>10041</x:v>
+        <x:v>10031</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
-        <x:v>70000</x:v>
+        <x:v>45000</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:5">
       <x:c r="A120" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B120" s="0" t="n">
-        <x:v>10047</x:v>
+        <x:v>10040</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
-        <x:v>50000</x:v>
+        <x:v>16000</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:5">
       <x:c r="A121" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="n">
+        <x:v>10041</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B121" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C121" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
-        <x:v>12800</x:v>
+        <x:v>87500</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5">
       <x:c r="A122" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B122" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>10047</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
-        <x:v>37500</x:v>
+        <x:v>50000</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:5">
       <x:c r="A123" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B123" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
-        <x:v>65000</x:v>
+        <x:v>12800</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5">
       <x:c r="A124" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B124" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
-        <x:v>1177000</x:v>
+        <x:v>37500</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5">
       <x:c r="A125" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B125" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
-        <x:v>328500</x:v>
+        <x:v>78000</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5">
       <x:c r="A126" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B126" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E126" s="0" t="n">
-        <x:v>123000</x:v>
+        <x:v>1339000</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:5">
       <x:c r="A127" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B127" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E127" s="0" t="n">
-        <x:v>87000</x:v>
+        <x:v>400000</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:5">
       <x:c r="A128" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B128" s="0" t="n">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E128" s="0" t="n">
-        <x:v>14000</x:v>
+        <x:v>147000</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:5">
       <x:c r="A129" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B129" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
-        <x:v>283900</x:v>
+        <x:v>101500</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5">
       <x:c r="A130" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B130" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
-        <x:v>621000</x:v>
+        <x:v>14000</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5">
       <x:c r="A131" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B131" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E131" s="0" t="n">
-        <x:v>95300</x:v>
+        <x:v>283900</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:5">
       <x:c r="A132" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B132" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E132" s="0" t="n">
-        <x:v>1775000</x:v>
+        <x:v>715500</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:5">
       <x:c r="A133" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B133" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
-        <x:v>408500</x:v>
+        <x:v>125300</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:5">
       <x:c r="A134" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B134" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
-        <x:v>154000</x:v>
+        <x:v>2201000</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:5">
       <x:c r="A135" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B135" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
-        <x:v>2702000</x:v>
+        <x:v>473000</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:5">
       <x:c r="A136" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B136" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
-        <x:v>1619500</x:v>
+        <x:v>154000</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:5">
       <x:c r="A137" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B137" s="0" t="n">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
-        <x:v>228600</x:v>
+        <x:v>3105000</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:5">
       <x:c r="A138" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B138" s="0" t="n">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
-        <x:v>217000</x:v>
+        <x:v>1817000</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:5">
       <x:c r="A139" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B139" s="0" t="n">
-        <x:v>214</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
-        <x:v>722000</x:v>
+        <x:v>228600</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:5">
       <x:c r="A140" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B140" s="0" t="n">
-        <x:v>215</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
-        <x:v>149500</x:v>
+        <x:v>310000</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:5">
       <x:c r="A141" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B141" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
-        <x:v>390600</x:v>
+        <x:v>912000</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:5">
       <x:c r="A142" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B142" s="0" t="n">
-        <x:v>217</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
-        <x:v>144000</x:v>
+        <x:v>172500</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:5">
       <x:c r="A143" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B143" s="0" t="n">
-        <x:v>218</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
-        <x:v>709000</x:v>
+        <x:v>426600</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:5">
       <x:c r="A144" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B144" s="0" t="n">
-        <x:v>219</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
-        <x:v>441100</x:v>
+        <x:v>144000</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:5">
       <x:c r="A145" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B145" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
-        <x:v>1250700</x:v>
+        <x:v>709000</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:5">
       <x:c r="A146" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B146" s="0" t="n">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
-        <x:v>922500</x:v>
+        <x:v>513100</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:5">
       <x:c r="A147" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B147" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
-        <x:v>1761900</x:v>
+        <x:v>1382700</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:5">
       <x:c r="A148" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B148" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
-        <x:v>48000</x:v>
+        <x:v>984000</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:5">
       <x:c r="A149" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B149" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E149" s="0" t="n">
-        <x:v>120000</x:v>
+        <x:v>1831900</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:5">
       <x:c r="A150" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B150" s="0" t="n">
-        <x:v>236</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E150" s="0" t="n">
-        <x:v>34000</x:v>
+        <x:v>48000</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:5">
       <x:c r="A151" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B151" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
-        <x:v>168000</x:v>
+        <x:v>120000</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:5">
       <x:c r="A152" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B152" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>159</x:v>
@@ -3568,134 +3574,134 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
-        <x:v>22000</x:v>
+        <x:v>34000</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:5">
       <x:c r="A153" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B153" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E153" s="0" t="n">
-        <x:v>231000</x:v>
+        <x:v>192000</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:5">
       <x:c r="A154" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B154" s="0" t="n">
-        <x:v>369</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E154" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>22000</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:5">
       <x:c r="A155" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B155" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
-        <x:v>9500</x:v>
+        <x:v>279000</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:5">
       <x:c r="A156" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B156" s="0" t="n">
-        <x:v>503</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>363</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
-        <x:v>9474400</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:5">
       <x:c r="A157" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B157" s="0" t="n">
-        <x:v>601</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
-        <x:v>105800</x:v>
+        <x:v>9500</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:5">
       <x:c r="A158" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B158" s="0" t="n">
-        <x:v>645</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>10072400</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:5">
       <x:c r="A159" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B159" s="0" t="n">
-        <x:v>682</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
-        <x:v>31000</x:v>
+        <x:v>123300</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:5">
       <x:c r="A160" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B160" s="0" t="n">
-        <x:v>690</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>167</x:v>
@@ -3704,389 +3710,389 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
-        <x:v>42000</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:5">
       <x:c r="A161" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B161" s="0" t="n">
-        <x:v>706</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
-        <x:v>1000000</x:v>
+        <x:v>31000</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:5">
       <x:c r="A162" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B162" s="0" t="n">
-        <x:v>707</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
-        <x:v>1200000</x:v>
+        <x:v>42000</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:5">
       <x:c r="A163" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B163" s="0" t="n">
-        <x:v>708</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
-        <x:v>252000</x:v>
+        <x:v>1000000</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:5">
       <x:c r="A164" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B164" s="0" t="n">
-        <x:v>903</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
-        <x:v>70000</x:v>
+        <x:v>1200000</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:5">
       <x:c r="A165" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B165" s="0" t="n">
-        <x:v>904</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
-        <x:v>606300</x:v>
+        <x:v>252000</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:5">
       <x:c r="A166" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B166" s="0" t="n">
-        <x:v>10001</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
-        <x:v>188000</x:v>
+        <x:v>80000</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:5">
       <x:c r="A167" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B167" s="0" t="n">
-        <x:v>10002</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
-        <x:v>93100</x:v>
+        <x:v>724800</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:5">
       <x:c r="A168" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B168" s="0" t="n">
-        <x:v>10004</x:v>
+        <x:v>10001</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
-        <x:v>1380000</x:v>
+        <x:v>224500</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:5">
       <x:c r="A169" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B169" s="0" t="n">
-        <x:v>10013</x:v>
+        <x:v>10002</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
-        <x:v>587400</x:v>
+        <x:v>112400</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:5">
       <x:c r="A170" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B170" s="0" t="n">
-        <x:v>10014</x:v>
+        <x:v>10004</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
-        <x:v>392700</x:v>
+        <x:v>1590000</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:5">
       <x:c r="A171" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B171" s="0" t="n">
-        <x:v>10015</x:v>
+        <x:v>10013</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
-        <x:v>308000</x:v>
+        <x:v>671600</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:5">
       <x:c r="A172" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B172" s="0" t="n">
-        <x:v>10016</x:v>
+        <x:v>10014</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
-        <x:v>852000</x:v>
+        <x:v>392700</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:5">
       <x:c r="A173" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B173" s="0" t="n">
-        <x:v>10017</x:v>
+        <x:v>10015</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
-        <x:v>148000</x:v>
+        <x:v>502000</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:5">
       <x:c r="A174" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B174" s="0" t="n">
-        <x:v>10045</x:v>
+        <x:v>10016</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
-        <x:v>960000</x:v>
+        <x:v>852000</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:5">
       <x:c r="A175" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="n">
+        <x:v>10017</x:v>
+      </x:c>
+      <x:c r="C175" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="B175" s="0" t="n">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="C175" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
-        <x:v>416400</x:v>
+        <x:v>203500</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:5">
       <x:c r="A176" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B176" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>10045</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
-        <x:v>84000</x:v>
+        <x:v>1056000</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:5">
       <x:c r="A177" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B177" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
-        <x:v>34000</x:v>
+        <x:v>494800</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:5">
       <x:c r="A178" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B178" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
-        <x:v>85000</x:v>
+        <x:v>106400</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:5">
       <x:c r="A179" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B179" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
-        <x:v>137600</x:v>
+        <x:v>42500</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:5">
       <x:c r="A180" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B180" s="0" t="n">
-        <x:v>259</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
-        <x:v>55000</x:v>
+        <x:v>85000</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:5">
       <x:c r="A181" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B181" s="0" t="n">
-        <x:v>261</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E181" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>152600</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:5">
       <x:c r="A182" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B182" s="0" t="n">
-        <x:v>611</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E182" s="0" t="n">
-        <x:v>7000</x:v>
+        <x:v>88000</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:5">
       <x:c r="A183" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B183" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>191</x:v>
@@ -4095,279 +4101,313 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E183" s="0" t="n">
-        <x:v>25000</x:v>
+        <x:v>1400</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:5">
       <x:c r="A184" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="n">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="C184" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="B184" s="0" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C184" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
-        <x:v>603900</x:v>
+        <x:v>7000</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:5">
       <x:c r="A185" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B185" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
-        <x:v>194900</x:v>
+        <x:v>25000</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:5">
       <x:c r="A186" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B186" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
-        <x:v>863000</x:v>
+        <x:v>647900</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:5">
       <x:c r="A187" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B187" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
-        <x:v>713700</x:v>
+        <x:v>194900</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:5">
       <x:c r="A188" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B188" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
-        <x:v>1104900</x:v>
+        <x:v>926100</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:5">
       <x:c r="A189" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
-        <x:v>412</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
-        <x:v>128000</x:v>
+        <x:v>830500</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:5">
       <x:c r="A190" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B190" s="0" t="n">
-        <x:v>413</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
-        <x:v>85600</x:v>
+        <x:v>1201100</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:5">
       <x:c r="A191" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B191" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
-        <x:v>96000</x:v>
+        <x:v>160000</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:5">
       <x:c r="A192" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B192" s="0" t="n">
-        <x:v>540</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
-        <x:v>74200</x:v>
+        <x:v>101600</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:5">
       <x:c r="A193" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B193" s="0" t="n">
-        <x:v>550</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
-        <x:v>1063200</x:v>
+        <x:v>96000</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:5">
       <x:c r="A194" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B194" s="0" t="n">
-        <x:v>551</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
-        <x:v>351200</x:v>
+        <x:v>74200</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:5">
       <x:c r="A195" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B195" s="0" t="n">
-        <x:v>656</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
-        <x:v>83400</x:v>
+        <x:v>1299200</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:5">
       <x:c r="A196" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="n">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="C196" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="B196" s="0" t="n">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="C196" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>1157</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>436800</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:5">
       <x:c r="A197" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B197" s="0" t="n">
-        <x:v>10044</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
-        <x:v>288000</x:v>
+        <x:v>131600</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:5">
       <x:c r="A198" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="C198" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="B198" s="0" t="n">
-        <x:v>9993</x:v>
-      </x:c>
-      <x:c r="C198" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
-        <x:v>267001</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:5">
       <x:c r="A199" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="n">
+        <x:v>10044</x:v>
+      </x:c>
+      <x:c r="C199" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D199" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E199" s="0" t="n">
+        <x:v>336000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:5">
+      <x:c r="A200" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="B199" s="0" t="n">
+      <x:c r="B200" s="0" t="n">
+        <x:v>9993</x:v>
+      </x:c>
+      <x:c r="C200" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D200" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E200" s="0" t="n">
+        <x:v>319001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:5">
+      <x:c r="A201" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="n">
         <x:v>999999</x:v>
       </x:c>
-      <x:c r="C199" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="D199" s="0" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E199" s="0" t="n">
-        <x:v>-257170</x:v>
+      <x:c r="C201" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D201" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E201" s="0" t="n">
+        <x:v>-273450</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
